--- a/code/excels/items/imba_item_recipes.xlsx
+++ b/code/excels/items/imba_item_recipes.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$B$2</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="340">
   <si>
     <t>主键</t>
   </si>
@@ -29,88 +30,1023 @@
     <t>基类</t>
   </si>
   <si>
+    <t>是否是图纸</t>
+  </si>
+  <si>
+    <t>合成结果</t>
+  </si>
+  <si>
+    <t>合成配方</t>
+  </si>
+  <si>
+    <t>RecipeName</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>BaseClass</t>
+  </si>
+  <si>
+    <t>ItemRecipe</t>
+  </si>
+  <si>
+    <t>ItemResult</t>
+  </si>
+  <si>
+    <t>ItemRequirements</t>
+  </si>
+  <si>
+    <t>item_imba_pers_recipe</t>
+  </si>
+  <si>
+    <t>坚韧球</t>
+  </si>
+  <si>
+    <t>item_recipe_arcane_boots</t>
+  </si>
+  <si>
+    <t>item_imba_pers</t>
+  </si>
+  <si>
+    <t>item_imba_ring_of_health;item_imba_void_stone</t>
+  </si>
+  <si>
+    <t>item_imba_mask_of_madness_recipe</t>
+  </si>
+  <si>
+    <t>疯狂面具</t>
+  </si>
+  <si>
+    <t>item_imba_mask_of_madness</t>
+  </si>
+  <si>
+    <t>item_imba_quarterstaff;item_imba_lifesteal</t>
+  </si>
+  <si>
+    <t>item_imba_arcane_boots_recipe</t>
+  </si>
+  <si>
+    <t>奥术鞋</t>
+  </si>
+  <si>
+    <t>item_imba_arcane_boots</t>
+  </si>
+  <si>
+    <t>item_imba_boots;item_imba_energy_booster</t>
+  </si>
+  <si>
+    <t>item_imba_helm_of_the_dominator_recipe</t>
+  </si>
+  <si>
+    <t>支配头盔</t>
+  </si>
+  <si>
+    <t>item_imba_helm_of_the_dominator</t>
+  </si>
+  <si>
+    <t>item_imba_helm_of_iron_will;item_imba_crown</t>
+  </si>
+  <si>
+    <t>item_imba_aether_lens_recipe</t>
+  </si>
+  <si>
+    <t>以太透镜</t>
+  </si>
+  <si>
+    <t>item_imba_aether_lens</t>
+  </si>
+  <si>
+    <t>item_imba_energy_booster;item_imba_void_stone</t>
+  </si>
+  <si>
+    <t>item_imba_vanguard_recipe</t>
+  </si>
+  <si>
+    <t>先锋盾</t>
+  </si>
+  <si>
+    <t>item_imba_vanguard</t>
+  </si>
+  <si>
+    <t>item_imba_ring_of_health;item_imba_vitality_booster</t>
+  </si>
+  <si>
+    <t>item_imba_oblivion_staff_recipe</t>
+  </si>
+  <si>
+    <t>空明杖</t>
+  </si>
+  <si>
+    <t>item_imba_oblivion_staff</t>
+  </si>
+  <si>
+    <t>item_imba_quarterstaff;item_imba_robe</t>
+  </si>
+  <si>
+    <t>item_imba_power_treads_recipe</t>
+  </si>
+  <si>
+    <t>动力鞋</t>
+  </si>
+  <si>
+    <t>item_imba_power_treads</t>
+  </si>
+  <si>
+    <t>item_imba_boots;item_imba_gloves;item_imba_crown</t>
+  </si>
+  <si>
+    <t>item_imba_ancient_janggo_recipe</t>
+  </si>
+  <si>
+    <t>韧鼓</t>
+  </si>
+  <si>
+    <t>item_imba_ancient_janggo</t>
+  </si>
+  <si>
+    <t>item_imba_belt_of_strength;item_imba_boots_of_elves;item_imba_robe</t>
+  </si>
+  <si>
+    <t>item_imba_mekansm_recipe</t>
+  </si>
+  <si>
+    <t>梅肯斯姆</t>
+  </si>
+  <si>
+    <t>item_imba_mekansm</t>
+  </si>
+  <si>
+    <t>item_imba_chainmail;item_imba_ring_of_health</t>
+  </si>
+  <si>
+    <t>item_imba_orb_of_corrosion_recipe</t>
+  </si>
+  <si>
+    <t>腐蚀之球</t>
+  </si>
+  <si>
+    <t>item_imba_orb_of_corrosion</t>
+  </si>
+  <si>
+    <t>item_imba_blight_stone;item_imba_orb_of_venom</t>
+  </si>
+  <si>
+    <t>item_imba_soul_booster_recipe</t>
+  </si>
+  <si>
+    <t>振魂石</t>
+  </si>
+  <si>
+    <t>item_imba_soul_booster</t>
+  </si>
+  <si>
+    <t>item_imba_energy_booster;item_imba_vitality_booster</t>
+  </si>
+  <si>
+    <t>item_imba_hood_of_defiance_recipe</t>
+  </si>
+  <si>
+    <t>挑战头巾</t>
+  </si>
+  <si>
+    <t>item_imba_hood_of_defiance</t>
+  </si>
+  <si>
+    <t>item_imba_ring_of_health;item_imba_cloak</t>
+  </si>
+  <si>
+    <t>item_imba_tranquil_boots_recipe</t>
+  </si>
+  <si>
+    <t>静谧之鞋</t>
+  </si>
+  <si>
+    <t>item_imba_tranquil_boots</t>
+  </si>
+  <si>
+    <t>item_imba_boots;item_imba_ring_of_health</t>
+  </si>
+  <si>
+    <t>item_imba_armlet_recipe</t>
+  </si>
+  <si>
+    <t>莫尔迪基安的臂章</t>
+  </si>
+  <si>
+    <t>item_imba_armlet</t>
+  </si>
+  <si>
+    <t>item_imba_helm_of_iron_will;item_imba_gloves;item_imba_blades_of_attack</t>
+  </si>
+  <si>
+    <t>item_imba_veil_of_discord_recipe</t>
+  </si>
+  <si>
+    <t>纷争面纱</t>
+  </si>
+  <si>
+    <t>item_imba_veil_of_discord</t>
+  </si>
+  <si>
+    <t>item_imba_void_stone;item_imba_crown</t>
+  </si>
+  <si>
+    <t>item_imba_lesser_crit_recipe</t>
+  </si>
+  <si>
+    <t>水晶剑</t>
+  </si>
+  <si>
+    <t>item_imba_lesser_crit</t>
+  </si>
+  <si>
+    <t>item_imba_broadsword;item_imba_blades_of_attack</t>
+  </si>
+  <si>
+    <t>item_imba_dagon_recipe</t>
+  </si>
+  <si>
+    <t>达贡之神力</t>
+  </si>
+  <si>
+    <t>item_imba_dagon</t>
+  </si>
+  <si>
+    <t>item_imba_staff_of_wizardry;item_imba_voodoo_mask</t>
+  </si>
+  <si>
+    <t>item_imba_rod_of_atos_recipe</t>
+  </si>
+  <si>
+    <t>阿托斯之棍</t>
+  </si>
+  <si>
+    <t>item_imba_rod_of_atos</t>
+  </si>
+  <si>
+    <t>item_imba_staff_of_wizardry;item_imba_crown;item_imba_crown</t>
+  </si>
+  <si>
+    <t>item_imba_dragon_lance_recipe</t>
+  </si>
+  <si>
+    <t>魔龙枪</t>
+  </si>
+  <si>
+    <t>item_imba_dragon_lance</t>
+  </si>
+  <si>
+    <t>item_imba_blade_of_alacrity;item_imba_belt_of_strength</t>
+  </si>
+  <si>
+    <t>item_imba_force_staff_recipe</t>
+  </si>
+  <si>
+    <t>原力法杖</t>
+  </si>
+  <si>
+    <t>item_imba_force_staff</t>
+  </si>
+  <si>
+    <t>item_imba_staff_of_wizardry;item_imba_ring_of_health</t>
+  </si>
+  <si>
+    <t>item_imba_blade_mail_recipe</t>
+  </si>
+  <si>
+    <t>刃甲</t>
+  </si>
+  <si>
+    <t>item_imba_blade_mail</t>
+  </si>
+  <si>
+    <t>item_imba_broadsword;item_imba_chainmail</t>
+  </si>
+  <si>
+    <t>item_imba_desolator_recipe</t>
+  </si>
+  <si>
+    <t>黯灭</t>
+  </si>
+  <si>
+    <t>item_imba_desolator</t>
+  </si>
+  <si>
+    <t>item_imba_mithril_hammer;item_imba_mithril_hammer;item_imba_blight_stone</t>
+  </si>
+  <si>
+    <t>item_imba_bfury_recipe</t>
+  </si>
+  <si>
+    <t>狂战斧</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>item_imba_bfury</t>
+    </r>
+  </si>
+  <si>
+    <t>item_imba_pers;item_imba_broadsword</t>
+  </si>
+  <si>
+    <t>item_imba_maelstrom_recipe</t>
+  </si>
+  <si>
+    <t>漩涡</t>
+  </si>
+  <si>
+    <t>item_imba_maelstrom</t>
+  </si>
+  <si>
+    <t>item_imba_mithril_hammer;item_imba_javelin</t>
+  </si>
+  <si>
+    <t>item_imba_skull_basher_recipe</t>
+  </si>
+  <si>
+    <t>碎颅锤</t>
+  </si>
+  <si>
+    <t>item_imba_skull_basher</t>
+  </si>
+  <si>
+    <t>item_imba_mithril_hammer;item_imba_belt_of_strength</t>
+  </si>
+  <si>
+    <t>item_imba_diffusal_blade_recipe</t>
+  </si>
+  <si>
+    <t>净魂之刃</t>
+  </si>
+  <si>
+    <t>item_imba_diffusal_blade</t>
+  </si>
+  <si>
+    <t>item_imba_blade_of_alacrity;item_imba_robe</t>
+  </si>
+  <si>
+    <t>item_imba_sange_recipe</t>
+  </si>
+  <si>
+    <t>散华</t>
+  </si>
+  <si>
+    <t>item_imba_sange</t>
+  </si>
+  <si>
+    <t>item_imba_ogre_axe;item_imba_belt_of_strength</t>
+  </si>
+  <si>
+    <t>item_imba_yasha_recipe</t>
+  </si>
+  <si>
+    <t>夜叉</t>
+  </si>
+  <si>
+    <t>item_imba_yasha</t>
+  </si>
+  <si>
+    <t>item_imba_blade_of_alacrity;item_imba_boots_of_elves</t>
+  </si>
+  <si>
+    <t>item_imba_kaya_recipe</t>
+  </si>
+  <si>
+    <t>慧光</t>
+  </si>
+  <si>
+    <t>item_imba_kaya</t>
+  </si>
+  <si>
+    <t>item_imba_staff_of_wizardry;item_imba_robe</t>
+  </si>
+  <si>
+    <t>item_imba_echo_sabre_recipe</t>
+  </si>
+  <si>
+    <t>回音战刃</t>
+  </si>
+  <si>
+    <t>item_imba_echo_sabre</t>
+  </si>
+  <si>
+    <t>item_imba_ogre_axe;item_imba_oblivion_staff</t>
+  </si>
+  <si>
+    <t>item_imba_pipe_recipe</t>
+  </si>
+  <si>
+    <t>洞察烟斗</t>
+  </si>
+  <si>
+    <t>item_imba_pipe</t>
+  </si>
+  <si>
+    <t>item_imba_hood_of_defiance;item_imba_buckler</t>
+  </si>
+  <si>
+    <t>item_imba_crimson_guard_recipe</t>
+  </si>
+  <si>
+    <t>赤红甲</t>
+  </si>
+  <si>
+    <t>item_imba_crimson_guard</t>
+  </si>
+  <si>
+    <t>item_imba_vanguard;item_imba_helm_of_iron_will</t>
+  </si>
+  <si>
+    <t>item_imba_orchid_recipe</t>
+  </si>
+  <si>
+    <t>紫苑</t>
+  </si>
+  <si>
+    <t>item_imba_orchid</t>
+  </si>
+  <si>
+    <t>item_imba_oblivion_staff;item_imba_oblivion_staff</t>
+  </si>
+  <si>
+    <t>item_imba_guardian_greaves_recipe</t>
+  </si>
+  <si>
+    <t>卫士胫甲</t>
+  </si>
+  <si>
+    <t>item_imba_guardian_greaves</t>
+  </si>
+  <si>
+    <t>item_imba_arcane_boots;item_imba_mekansm</t>
+  </si>
+  <si>
+    <t>item_imba_vladmir_recipe</t>
+  </si>
+  <si>
+    <t>弗拉迪米尔的祭品</t>
+  </si>
+  <si>
+    <t>item_imba_vladmir</t>
+  </si>
+  <si>
+    <t>item_imba_buckler;item_imba_lifesteal;item_imba_broadsword</t>
+  </si>
+  <si>
+    <t>item_imba_bloodstone_recipe</t>
+  </si>
+  <si>
+    <t>血精石</t>
+  </si>
+  <si>
+    <t>item_imba_bloodstone</t>
+  </si>
+  <si>
+    <t>item_imba_voodoo_mask;item_imba_soul_booster</t>
+  </si>
+  <si>
+    <t>item_imba_octarine_core_recipe</t>
+  </si>
+  <si>
+    <t>玲珑心</t>
+  </si>
+  <si>
+    <t>item_imba_octarine_core</t>
+  </si>
+  <si>
+    <t>item_imba_voodoo_mask;item_imba_pers</t>
+  </si>
+  <si>
+    <t>item_imba_eternal_shroud_recipe</t>
+  </si>
+  <si>
+    <t>永世法衣</t>
+  </si>
+  <si>
+    <t>item_imba_eternal_shroud</t>
+  </si>
+  <si>
+    <t>item_imba_cloak;item_imba_ogre_axe;item_imba_ring_of_health</t>
+  </si>
+  <si>
+    <t>item_imba_aeon_disk_recipe</t>
+  </si>
+  <si>
+    <t>永恒之盘</t>
+  </si>
+  <si>
+    <t>item_imba_aeon_disk</t>
+  </si>
+  <si>
+    <t>item_imba_vitality_booster;item_imba_buckler</t>
+  </si>
+  <si>
+    <t>item_imba_black_king_bar_recipe</t>
+  </si>
+  <si>
+    <t>黑皇杖</t>
+  </si>
+  <si>
+    <t>item_imba_black_king_bar</t>
+  </si>
+  <si>
+    <t>item_imba_ogre_axe;item_imba_mithril_hammer</t>
+  </si>
+  <si>
+    <t>item_imba_lotus_orb_recipe</t>
+  </si>
+  <si>
+    <t>清莲宝珠</t>
+  </si>
+  <si>
+    <t>item_imba_lotus_orb</t>
+  </si>
+  <si>
+    <t>item_imba_pers;item_imba_vitality_booster;item_imba_platemail</t>
+  </si>
+  <si>
+    <t>item_imba_boots_of_bearing_recipe</t>
+  </si>
+  <si>
+    <t>宽容之靴</t>
+  </si>
+  <si>
+    <t>item_imba_boots_of_bearing</t>
+  </si>
+  <si>
+    <t>item_imba_tranquil_boots;item_imba_ancient_janggo</t>
+  </si>
+  <si>
+    <t>item_imba_necronomicon_recipe</t>
+  </si>
+  <si>
+    <t>死灵书</t>
+  </si>
+  <si>
+    <t>item_imba_necronomicon</t>
+  </si>
+  <si>
+    <t>item_imba_staff_of_wizardry;item_imba_helm_of_iron_will</t>
+  </si>
+  <si>
+    <t>item_imba_meteor_hammer_recipe</t>
+  </si>
+  <si>
+    <t>陨星锤</t>
+  </si>
+  <si>
+    <t>item_imba_meteor_hammer</t>
+  </si>
+  <si>
+    <t>item_imba_pers;item_imba_crown</t>
+  </si>
+  <si>
+    <t>item_imba_witch_blade_recipe</t>
+  </si>
+  <si>
+    <t>巫师之刃</t>
+  </si>
+  <si>
+    <t>item_imba_witch_blade</t>
+  </si>
+  <si>
+    <t>item_imba_blitz_knuckles;item_imba_robe;item_imba_chainmail</t>
+  </si>
+  <si>
+    <t>item_imba_rapier_recipe</t>
+  </si>
+  <si>
+    <t>圣剑</t>
+  </si>
+  <si>
+    <t>item_imba_rapier</t>
+  </si>
+  <si>
+    <t>item_imba_relic;item_imba_demon_edge</t>
+  </si>
+  <si>
+    <t>item_imba_rapier_magic_recipe</t>
+  </si>
+  <si>
+    <t>魔法圣剑</t>
+  </si>
+  <si>
+    <t>item_imba_rapier_magic</t>
+  </si>
+  <si>
+    <t>item_imba_relic;item_imba_mystic_staff</t>
+  </si>
+  <si>
+    <t>item_imba_radiance_recipe</t>
+  </si>
+  <si>
+    <t>辉耀</t>
+  </si>
+  <si>
+    <t>item_imba_radiance</t>
+  </si>
+  <si>
+    <t>item_imba_relic;item_imba_talisman_of_evasion</t>
+  </si>
+  <si>
+    <t>item_imba_monkey_king_bar_recipe</t>
+  </si>
+  <si>
+    <t>金箍棒</t>
+  </si>
+  <si>
+    <t>item_imba_monkey_king_bar</t>
+  </si>
+  <si>
+    <t>item_imba_demon_edge;item_imba_javelin;item_imba_blitz_knuckles</t>
+  </si>
+  <si>
+    <t>item_imba_butterfly_recipe</t>
+  </si>
+  <si>
+    <t>蝴蝶</t>
+  </si>
+  <si>
+    <t>item_imba_butterfly</t>
+  </si>
+  <si>
+    <t>item_imba_eagle;item_imba_talisman_of_evasion;item_imba_quarterstaff</t>
+  </si>
+  <si>
+    <t>item_imba_greater_crit_recipe</t>
+  </si>
+  <si>
+    <t>代达罗斯之殇</t>
+  </si>
+  <si>
+    <t>item_imba_greater_crit</t>
+  </si>
+  <si>
+    <t>item_imba_lesser_crit;item_imba_demon_edge</t>
+  </si>
+  <si>
+    <t>item_imba_mjollnir_recipe</t>
+  </si>
+  <si>
+    <t>雷神之锤</t>
+  </si>
+  <si>
+    <t>item_imba_mjollnir</t>
+  </si>
+  <si>
+    <t>item_imba_maelstrom;item_imba_hyperstone</t>
+  </si>
+  <si>
+    <t>item_imba_abyssal_blade_recipe</t>
+  </si>
+  <si>
+    <t>深渊之刃</t>
+  </si>
+  <si>
+    <t>item_imba_abyssal_blade</t>
+  </si>
+  <si>
+    <t>item_imba_skull_basher;item_imba_vanguard</t>
+  </si>
+  <si>
+    <t>item_imba_satanic_recipe</t>
+  </si>
+  <si>
+    <t>撒旦之邪力</t>
+  </si>
+  <si>
+    <t>item_imba_satanic</t>
+  </si>
+  <si>
+    <t>item_imba_reaver;item_imba_broadsword;item_imba_lifesteal</t>
+  </si>
+  <si>
+    <t>item_imba_assault_recipe</t>
+  </si>
+  <si>
+    <t>强袭胸甲</t>
+  </si>
+  <si>
+    <t>item_imba_assault</t>
+  </si>
+  <si>
+    <t>item_imba_platemail;item_imba_hyperstone;item_imba_buckler</t>
+  </si>
+  <si>
+    <t>item_imba_sheepstick_recipe</t>
+  </si>
+  <si>
+    <t>邪恶镰刀</t>
+  </si>
+  <si>
+    <t>item_imba_sheepstick</t>
+  </si>
+  <si>
+    <t>item_imba_mystic_staff;item_imba_ultimate_orb;item_imba_void_stone</t>
+  </si>
+  <si>
+    <t>item_imba_moon_shard_recipe</t>
+  </si>
+  <si>
+    <t>银月之晶</t>
+  </si>
+  <si>
+    <t>item_imba_moon_shard</t>
+  </si>
+  <si>
+    <t>item_imba_hyperstone;item_imba_hyperstone</t>
+  </si>
+  <si>
+    <t>item_imba_skadi_recipe</t>
+  </si>
+  <si>
+    <t>斯嘉蒂之眼</t>
+  </si>
+  <si>
+    <t>item_imba_skadi</t>
+  </si>
+  <si>
+    <t>item_imba_ultimate_orb;item_imba_ultimate_orb;item_imba_vitality_booster</t>
+  </si>
+  <si>
+    <t>item_imba_refresher_recipe</t>
+  </si>
+  <si>
+    <t>刷新球</t>
+  </si>
+  <si>
+    <t>item_imba_refresher</t>
+  </si>
+  <si>
+    <t>item_imba_pers;item_imba_pers;item_imba_energy_booster</t>
+  </si>
+  <si>
+    <t>item_imba_manta_recipe</t>
+  </si>
+  <si>
+    <t>幻影斧</t>
+  </si>
+  <si>
+    <t>item_imba_manta</t>
+  </si>
+  <si>
+    <t>item_imba_yasha;item_imba_ultimate_orb</t>
+  </si>
+  <si>
+    <t>item_imba_shivas_guard_recipe</t>
+  </si>
+  <si>
+    <t>希瓦的守护</t>
+  </si>
+  <si>
+    <t>item_imba_shivas_guard</t>
+  </si>
+  <si>
+    <t>item_imba_platemail;item_imba_mystic_staff</t>
+  </si>
+  <si>
+    <t>item_imba_bloodthorn_recipe</t>
+  </si>
+  <si>
+    <t>血棘</t>
+  </si>
+  <si>
+    <t>item_imba_bloodthorn</t>
+  </si>
+  <si>
+    <t>item_imba_orchid;item_imba_lesser_crit</t>
+  </si>
+  <si>
+    <t>item_imba_heart_recipe</t>
+  </si>
+  <si>
+    <t>恐鳌之心</t>
+  </si>
+  <si>
+    <t>item_imba_heart</t>
+  </si>
+  <si>
+    <t>item_imba_reaver;item_imba_vitality_booster</t>
+  </si>
+  <si>
+    <t>item_imba_hurricane_pike_recipe</t>
+  </si>
+  <si>
+    <t>飓风长戟</t>
+  </si>
+  <si>
+    <t>item_imba_hurricane_pike</t>
+  </si>
+  <si>
+    <t>item_imba_dragon_lance;item_imba_force_staff</t>
+  </si>
+  <si>
+    <t>item_imba_kaya_and_sange_recipe</t>
+  </si>
+  <si>
+    <t>散慧对剑</t>
+  </si>
+  <si>
+    <t>item_imba_kaya_and_sange</t>
+  </si>
+  <si>
+    <t>item_imba_sange;item_imba_kaya</t>
+  </si>
+  <si>
+    <t>item_imba_sange_and_yasha_recipe</t>
+  </si>
+  <si>
+    <t>散夜对剑</t>
+  </si>
+  <si>
+    <t>item_imba_sange_and_yasha</t>
+  </si>
+  <si>
+    <t>item_imba_sange;item_imba_yasha</t>
+  </si>
+  <si>
+    <t>item_imba_yasha_and_kaya_recipe</t>
+  </si>
+  <si>
+    <t>慧夜对剑</t>
+  </si>
+  <si>
+    <t>item_imba_yasha_and_kaya</t>
+  </si>
+  <si>
+    <t>item_imba_kaya;item_imba_yasha</t>
+  </si>
+  <si>
+    <t>item_imba_heavens_halberd_recipe</t>
+  </si>
+  <si>
+    <t>天堂之戟</t>
+  </si>
+  <si>
+    <t>item_imba_heavens_halberd</t>
+  </si>
+  <si>
+    <t>item_imba_sange;item_imba_talisman_of_evasion</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>imba_item_recipes</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K+</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>01&gt;V</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
     <t>道具花费</t>
   </si>
   <si>
     <t>道具商店标签</t>
   </si>
   <si>
-    <t>是否是图纸</t>
-  </si>
-  <si>
-    <t>合成结果</t>
-  </si>
-  <si>
-    <t>合成配方</t>
-  </si>
-  <si>
-    <t>RecipeName</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>BaseClass</t>
-  </si>
-  <si>
     <t>ItemCost</t>
   </si>
   <si>
     <t>ItemShopTags</t>
   </si>
   <si>
-    <t>ItemRecipe</t>
-  </si>
-  <si>
-    <t>ItemResult</t>
-  </si>
-  <si>
-    <t>ItemRequirements</t>
-  </si>
-  <si>
-    <t>item_imba_recipe_pers</t>
-  </si>
-  <si>
-    <t>item_recipe_arcane_boots</t>
-  </si>
-  <si>
-    <t>item_imba_pers</t>
-  </si>
-  <si>
-    <t>item_imba_ring_of_health;item_imba_void_stone</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>表名</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>DOTAAbilities</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>K+</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>01&gt;V</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>root</t>
+    <t>item_imba_quarterstaff</t>
+  </si>
+  <si>
+    <t>item_imba_lifesteal</t>
+  </si>
+  <si>
+    <t>item_imba_boots</t>
+  </si>
+  <si>
+    <t>item_imba_energy_booster</t>
+  </si>
+  <si>
+    <t>item_imba_helm_of_iron_will</t>
+  </si>
+  <si>
+    <t>item_imba_crown</t>
+  </si>
+  <si>
+    <t>item_imba_void_stone</t>
+  </si>
+  <si>
+    <t>item_imba_ring_of_health</t>
+  </si>
+  <si>
+    <t>item_imba_vitality_booster</t>
+  </si>
+  <si>
+    <t>item_imba_robe</t>
+  </si>
+  <si>
+    <t>item_imba_gloves</t>
+  </si>
+  <si>
+    <t>item_imba_belt_of_strength</t>
+  </si>
+  <si>
+    <t>item_imba_boots_of_elves</t>
+  </si>
+  <si>
+    <t>item_imba_chainmail</t>
+  </si>
+  <si>
+    <t>item_imba_blight_stone</t>
+  </si>
+  <si>
+    <t>item_imba_orb_of_venom</t>
+  </si>
+  <si>
+    <t>item_imba_cloak</t>
+  </si>
+  <si>
+    <t>item_imba_blades_of_attack</t>
+  </si>
+  <si>
+    <t>item_imba_broadsword</t>
+  </si>
+  <si>
+    <t>item_imba_staff_of_wizardry</t>
+  </si>
+  <si>
+    <t>item_imba_voodoo_mask</t>
+  </si>
+  <si>
+    <t>item_imba_blade_of_alacrity</t>
+  </si>
+  <si>
+    <t>item_imba_mithril_hammer</t>
+  </si>
+  <si>
+    <t>item_imba_javelin</t>
+  </si>
+  <si>
+    <t>item_imba_ogre_axe</t>
+  </si>
+  <si>
+    <t>item_imba_buckler</t>
+  </si>
+  <si>
+    <t>item_imba_platemail</t>
+  </si>
+  <si>
+    <t>item_imba_blitz_knuckles</t>
+  </si>
+  <si>
+    <t>item_imba_relic</t>
+  </si>
+  <si>
+    <t>item_imba_demon_edge</t>
+  </si>
+  <si>
+    <t>item_imba_mystic_staff</t>
+  </si>
+  <si>
+    <t>item_imba_talisman_of_evasion</t>
+  </si>
+  <si>
+    <t>item_imba_eagle</t>
+  </si>
+  <si>
+    <t>item_imba_hyperstone</t>
+  </si>
+  <si>
+    <t>item_imba_reaver</t>
+  </si>
+  <si>
+    <t>item_imba_ultimate_orb</t>
   </si>
 </sst>
 </file>
@@ -123,7 +1059,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,13 +1218,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -589,10 +1549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,16 +1561,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,10 +1582,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,28 +1606,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -676,40 +1636,31 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,7 +1669,7 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,40 +1681,76 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,95 +2071,1444 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.3916666666667" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667" style="11" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="41.225" style="11" customWidth="1"/>
+    <col min="1" max="1" width="34.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.3916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.0583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="74.0833333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" ht="15.5" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="15.5" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" ht="15.5" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" ht="15.5" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" ht="15.5" spans="1:6">
+      <c r="A37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="1:6">
+      <c r="A38" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" ht="15.5" spans="1:6">
+      <c r="A46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" ht="15.5" spans="1:6">
+      <c r="A47" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" ht="15.5" spans="1:6">
+      <c r="A50" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" ht="15.5" spans="1:6">
+      <c r="A54" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" ht="15.5" spans="1:6">
+      <c r="A55" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" ht="15.5" spans="1:6">
+      <c r="A56" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" ht="15.5" spans="1:6">
+      <c r="A57" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" ht="15.5" spans="1:6">
+      <c r="A58" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" ht="15.5" spans="1:6">
+      <c r="A59" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" ht="15.5" spans="1:6">
+      <c r="A60" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" ht="15.5" spans="1:6">
+      <c r="A61" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" ht="15.5" spans="1:6">
+      <c r="A63" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" ht="15.5" spans="1:6">
+      <c r="A64" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" ht="15.5" spans="1:6">
+      <c r="A65" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" ht="15.5" spans="1:6">
+      <c r="A66" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" ht="15.5" spans="1:6">
+      <c r="A67" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" ht="15.5" spans="1:6">
+      <c r="A71" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1185,214 +3521,2170 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.91666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.4166666666667" customWidth="1"/>
-    <col min="3" max="4" width="14.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="15.9166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
+    <col min="5" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="16" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
+      <c r="A1" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" s="16" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" ht="28" spans="1:7">
+      <c r="A4" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="8" ht="15.5" spans="9:10">
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="10:10">
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" ht="15.5" spans="10:10">
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="5:9">
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="5:9">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A5" s="18"/>
+    </row>
+    <row r="8" ht="15.5" spans="7:8">
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" ht="15.5" spans="8:8">
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" ht="15.5" spans="8:8">
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="3"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="3"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="34.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.3916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6666666666667" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.0583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="74.0833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.4916666666667" customWidth="1"/>
+    <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K67" si="0">H4&amp;";"&amp;I4&amp;IF(ISBLANK(J4),"",";"&amp;J4)</f>
+        <v>item_imba_quarterstaff;item_imba_lifesteal</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_boots;item_imba_energy_booster</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_helm_of_iron_will;item_imba_crown</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_energy_booster;item_imba_void_stone</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_ring_of_health;item_imba_vitality_booster</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_quarterstaff;item_imba_robe</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_boots;item_imba_gloves;item_imba_crown</v>
+      </c>
+    </row>
+    <row r="11" ht="15.5" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_belt_of_strength;item_imba_boots_of_elves;item_imba_robe</v>
+      </c>
+    </row>
+    <row r="12" ht="15.5" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_chainmail;item_imba_ring_of_health</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_blight_stone;item_imba_orb_of_venom</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_energy_booster;item_imba_vitality_booster</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_ring_of_health;item_imba_cloak</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" spans="1:11">
+      <c r="A16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_boots;item_imba_ring_of_health</v>
+      </c>
+    </row>
+    <row r="17" ht="15.5" spans="1:11">
+      <c r="A17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_helm_of_iron_will;item_imba_gloves;item_imba_blades_of_attack</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" spans="1:11">
+      <c r="A18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_void_stone;item_imba_crown</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_broadsword;item_imba_blades_of_attack</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_staff_of_wizardry;item_imba_voodoo_mask</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_staff_of_wizardry;item_imba_crown;item_imba_crown</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_blade_of_alacrity;item_imba_belt_of_strength</v>
+      </c>
+    </row>
+    <row r="23" ht="15.5" spans="1:11">
+      <c r="A23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_staff_of_wizardry;item_imba_ring_of_health</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_broadsword;item_imba_chainmail</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_mithril_hammer;item_imba_mithril_hammer;item_imba_blight_stone</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="1:11">
+      <c r="A26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_pers;item_imba_broadsword</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:11">
+      <c r="A27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_mithril_hammer;item_imba_javelin</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:11">
+      <c r="A28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_mithril_hammer;item_imba_belt_of_strength</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_blade_of_alacrity;item_imba_robe</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_ogre_axe;item_imba_belt_of_strength</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_blade_of_alacrity;item_imba_boots_of_elves</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_staff_of_wizardry;item_imba_robe</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_ogre_axe;item_imba_oblivion_staff</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_hood_of_defiance;item_imba_buckler</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_vanguard;item_imba_helm_of_iron_will</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_oblivion_staff;item_imba_oblivion_staff</v>
+      </c>
+    </row>
+    <row r="37" ht="15.5" spans="1:11">
+      <c r="A37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_arcane_boots;item_imba_mekansm</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="1:11">
+      <c r="A38" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_buckler;item_imba_lifesteal;item_imba_broadsword</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_voodoo_mask;item_imba_soul_booster</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_voodoo_mask;item_imba_pers</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_cloak;item_imba_ogre_axe;item_imba_ring_of_health</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_vitality_booster;item_imba_buckler</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_ogre_axe;item_imba_mithril_hammer</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_pers;item_imba_vitality_booster;item_imba_platemail</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_tranquil_boots;item_imba_ancient_janggo</v>
+      </c>
+    </row>
+    <row r="46" ht="15.5" spans="1:11">
+      <c r="A46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_staff_of_wizardry;item_imba_helm_of_iron_will</v>
+      </c>
+    </row>
+    <row r="47" ht="15.5" spans="1:11">
+      <c r="A47" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_pers;item_imba_crown</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_blitz_knuckles;item_imba_robe;item_imba_chainmail</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_relic;item_imba_demon_edge</v>
+      </c>
+    </row>
+    <row r="50" ht="15.5" spans="1:11">
+      <c r="A50" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_relic;item_imba_mystic_staff</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_relic;item_imba_talisman_of_evasion</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_demon_edge;item_imba_javelin;item_imba_blitz_knuckles</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_eagle;item_imba_talisman_of_evasion;item_imba_quarterstaff</v>
+      </c>
+    </row>
+    <row r="54" ht="15.5" spans="1:11">
+      <c r="A54" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_lesser_crit;item_imba_demon_edge</v>
+      </c>
+    </row>
+    <row r="55" ht="15.5" spans="1:11">
+      <c r="A55" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_maelstrom;item_imba_hyperstone</v>
+      </c>
+    </row>
+    <row r="56" ht="15.5" spans="1:11">
+      <c r="A56" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_skull_basher;item_imba_vanguard</v>
+      </c>
+    </row>
+    <row r="57" ht="15.5" spans="1:11">
+      <c r="A57" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_reaver;item_imba_broadsword;item_imba_lifesteal</v>
+      </c>
+    </row>
+    <row r="58" ht="15.5" spans="1:11">
+      <c r="A58" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_platemail;item_imba_hyperstone;item_imba_buckler</v>
+      </c>
+    </row>
+    <row r="59" ht="15.5" spans="1:11">
+      <c r="A59" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_mystic_staff;item_imba_ultimate_orb;item_imba_void_stone</v>
+      </c>
+    </row>
+    <row r="60" ht="15.5" spans="1:11">
+      <c r="A60" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_hyperstone;item_imba_hyperstone</v>
+      </c>
+    </row>
+    <row r="61" ht="15.5" spans="1:11">
+      <c r="A61" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_ultimate_orb;item_imba_ultimate_orb;item_imba_vitality_booster</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_pers;item_imba_pers;item_imba_energy_booster</v>
+      </c>
+    </row>
+    <row r="63" ht="15.5" spans="1:11">
+      <c r="A63" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_yasha;item_imba_ultimate_orb</v>
+      </c>
+    </row>
+    <row r="64" ht="15.5" spans="1:11">
+      <c r="A64" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_platemail;item_imba_mystic_staff</v>
+      </c>
+    </row>
+    <row r="65" ht="15.5" spans="1:11">
+      <c r="A65" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_orchid;item_imba_lesser_crit</v>
+      </c>
+    </row>
+    <row r="66" ht="15.5" spans="1:11">
+      <c r="A66" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_reaver;item_imba_vitality_booster</v>
+      </c>
+    </row>
+    <row r="67" ht="15.5" spans="1:11">
+      <c r="A67" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_dragon_lance;item_imba_force_staff</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" ref="K68:K71" si="1">H68&amp;";"&amp;I68&amp;IF(ISBLANK(J68),"",";"&amp;J68)</f>
+        <v>item_imba_sange;item_imba_kaya</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>item_imba_sange;item_imba_yasha</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="1"/>
+        <v>item_imba_kaya;item_imba_yasha</v>
+      </c>
+    </row>
+    <row r="71" ht="15.5" spans="1:11">
+      <c r="A71" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
+        <v>item_imba_sange;item_imba_talisman_of_evasion</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/code/excels/items/imba_item_recipes.xlsx
+++ b/code/excels/items/imba_item_recipes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="353">
   <si>
     <t>主键</t>
   </si>
@@ -250,6 +250,60 @@
   </si>
   <si>
     <t>item_imba_void_stone;item_imba_crown</t>
+  </si>
+  <si>
+    <t>魔力法杖</t>
+  </si>
+  <si>
+    <t>item_imba_staff_of_wizardry</t>
+  </si>
+  <si>
+    <t>item_imba_robe;item_imba_robe</t>
+  </si>
+  <si>
+    <t>食人魔之斧</t>
+  </si>
+  <si>
+    <t>item_imba_ogre_axe</t>
+  </si>
+  <si>
+    <t>item_imba_belt_of_strength;item_imba_belt_of_strength</t>
+  </si>
+  <si>
+    <t>欢欣之刃</t>
+  </si>
+  <si>
+    <t>item_imba_blade_of_alacrity</t>
+  </si>
+  <si>
+    <t>item_imba_boots_of_elves;item_imba_boots_of_elves</t>
+  </si>
+  <si>
+    <t>板甲</t>
+  </si>
+  <si>
+    <t>item_imba_platemail</t>
+  </si>
+  <si>
+    <t>item_imba_chainmail;item_imba_chainmail</t>
+  </si>
+  <si>
+    <t>标枪</t>
+  </si>
+  <si>
+    <t>item_imba_javelin</t>
+  </si>
+  <si>
+    <t>item_imba_quarterstaff;item_imba_quarterstaff</t>
+  </si>
+  <si>
+    <t>闪烁匕首</t>
+  </si>
+  <si>
+    <t>item_imba_blink</t>
+  </si>
+  <si>
+    <t>item_imba_boots;item_imba_boots</t>
   </si>
   <si>
     <t>item_imba_lesser_crit_recipe</t>
@@ -998,28 +1052,13 @@
     <t>item_imba_broadsword</t>
   </si>
   <si>
-    <t>item_imba_staff_of_wizardry</t>
-  </si>
-  <si>
     <t>item_imba_voodoo_mask</t>
   </si>
   <si>
-    <t>item_imba_blade_of_alacrity</t>
-  </si>
-  <si>
     <t>item_imba_mithril_hammer</t>
   </si>
   <si>
-    <t>item_imba_javelin</t>
-  </si>
-  <si>
-    <t>item_imba_ogre_axe</t>
-  </si>
-  <si>
     <t>item_imba_buckler</t>
-  </si>
-  <si>
-    <t>item_imba_platemail</t>
   </si>
   <si>
     <t>item_imba_blitz_knuckles</t>
@@ -1691,7 +1730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1750,6 +1789,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2071,14 +2113,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E31"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="$A55:$XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2391,11 +2433,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" ht="15.5" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2411,11 +2453,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" ht="15.5" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2431,11 +2473,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" ht="15.5" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2452,231 +2494,237 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="9" t="str">
+        <f t="shared" ref="A19:A24" si="0">E19&amp;"_recipe"</f>
+        <v>item_imba_staff_of_wizardry_recipe</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_ogre_axe_recipe</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_blade_of_alacrity_recipe</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="11" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_platemail_recipe</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_javelin_recipe</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="7" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>item_imba_blink_recipe</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" ht="15.5" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="F24" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="F26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="B27" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" ht="15.5" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="F27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" ht="15.5" spans="1:6">
-      <c r="A27" s="9" t="s">
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="F28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="s">
+    </row>
+    <row r="29" ht="15.5" spans="1:6">
+      <c r="A29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="B29" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" ht="15.5" spans="1:6">
-      <c r="A28" s="9" t="s">
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="F29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2685,98 +2733,98 @@
         <v>1</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" ht="15.5" spans="1:6">
+      <c r="A32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="F32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7" t="s">
+    </row>
+    <row r="33" ht="15.5" spans="1:6">
+      <c r="A33" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="B33" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="9" t="s">
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="F33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7" t="s">
+    </row>
+    <row r="34" ht="15.5" spans="1:6">
+      <c r="A34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="B34" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="9" t="s">
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="F34" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -2785,78 +2833,78 @@
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="F37" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7" t="s">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="B38" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" ht="15.5" spans="1:6">
-      <c r="A37" s="9" t="s">
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="F38" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" ht="15.5" spans="1:6">
-      <c r="A38" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
@@ -2865,18 +2913,18 @@
         <v>1</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2885,18 +2933,18 @@
         <v>1</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2905,138 +2953,138 @@
         <v>1</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" ht="15.5" spans="1:6">
+      <c r="A43" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="F43" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7" t="s">
+    </row>
+    <row r="44" ht="15.5" spans="1:6">
+      <c r="A44" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="B44" s="12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="9" t="s">
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="F44" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="F46" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="B47" s="11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="46" ht="15.5" spans="1:6">
-      <c r="A46" s="9" t="s">
+      <c r="C47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="F47" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" ht="15.5" spans="1:6">
-      <c r="A47" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -3045,238 +3093,238 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="F50" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" ht="15.5" spans="1:6">
-      <c r="A50" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" ht="15.5" spans="1:6">
+      <c r="A52" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="F52" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="7" t="s">
+    </row>
+    <row r="53" ht="15.5" spans="1:6">
+      <c r="A53" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="B53" s="12" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="9" t="s">
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="F53" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="7" t="s">
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="B54" s="11" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="9" t="s">
+      <c r="C54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="F54" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7" t="s">
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="B55" s="13" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="54" ht="15.5" spans="1:6">
-      <c r="A54" s="9" t="s">
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="F55" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" ht="15.5" spans="1:6">
-      <c r="A55" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="56" ht="15.5" spans="1:6">
       <c r="A56" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="F57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7" t="s">
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="B58" s="13" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="57" ht="15.5" spans="1:6">
-      <c r="A57" s="9" t="s">
+      <c r="C58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="F58" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7" t="s">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="B59" s="13" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="58" ht="15.5" spans="1:6">
-      <c r="A58" s="9" t="s">
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="F59" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" ht="15.5" spans="1:6">
-      <c r="A59" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="60" ht="15.5" spans="1:6">
       <c r="A60" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -3285,58 +3333,58 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" ht="15.5" spans="1:6">
       <c r="A61" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" ht="15.5" spans="1:6">
+      <c r="A62" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="F62" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="63" ht="15.5" spans="1:6">
       <c r="A63" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3345,18 +3393,18 @@
         <v>1</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" ht="15.5" spans="1:6">
       <c r="A64" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3365,18 +3413,18 @@
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" ht="15.5" spans="1:6">
       <c r="A65" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3385,18 +3433,18 @@
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" ht="15.5" spans="1:6">
       <c r="A66" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3405,18 +3453,18 @@
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" ht="15.5" spans="1:6">
       <c r="A67" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3425,90 +3473,210 @@
         <v>1</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" ht="15.5" spans="1:6">
+      <c r="A69" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="F69" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7" t="s">
+    </row>
+    <row r="70" ht="15.5" spans="1:6">
+      <c r="A70" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="B70" s="14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="F70" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="71" ht="15.5" spans="1:6">
       <c r="A71" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" ht="15.5" spans="1:6">
+      <c r="A72" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="F72" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="7" t="s">
+    </row>
+    <row r="73" ht="15.5" spans="1:6">
+      <c r="A73" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="B73" s="14" t="s">
         <v>288</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" ht="15.5" spans="1:6">
+      <c r="A77" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3523,7 +3691,7 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3540,10 +3708,10 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3563,10 +3731,10 @@
     </row>
     <row r="2" s="16" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -3586,36 +3754,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" ht="28" spans="1:7">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -3733,10 +3901,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3759,10 +3927,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -3815,10 +3983,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K67" si="0">H4&amp;";"&amp;I4&amp;IF(ISBLANK(J4),"",";"&amp;J4)</f>
@@ -3842,10 +4010,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
@@ -3869,10 +4037,10 @@
         <v>27</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
@@ -3896,10 +4064,10 @@
         <v>31</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
@@ -3923,10 +4091,10 @@
         <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
@@ -3950,10 +4118,10 @@
         <v>39</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" t="str">
@@ -3978,13 +4146,13 @@
         <v>43</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -4008,13 +4176,13 @@
         <v>47</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -4038,10 +4206,10 @@
         <v>51</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -4065,10 +4233,10 @@
         <v>55</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -4092,10 +4260,10 @@
         <v>59</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -4119,10 +4287,10 @@
         <v>63</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -4146,10 +4314,10 @@
         <v>67</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -4173,13 +4341,13 @@
         <v>71</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -4203,10 +4371,10 @@
         <v>75</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -4215,10 +4383,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -4227,13 +4395,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -4242,10 +4410,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="9" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -4254,13 +4422,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -4269,10 +4437,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="9" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -4281,16 +4449,16 @@
         <v>1</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -4299,10 +4467,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="9" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -4311,13 +4479,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>325</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -4326,10 +4494,10 @@
     </row>
     <row r="23" ht="15.5" spans="1:11">
       <c r="A23" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>14</v>
@@ -4338,13 +4506,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -4353,10 +4521,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="9" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -4365,13 +4533,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -4380,10 +4548,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="9" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -4392,16 +4560,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -4410,10 +4578,10 @@
     </row>
     <row r="26" ht="15.5" spans="1:11">
       <c r="A26" s="9" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -4422,13 +4590,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -4437,10 +4605,10 @@
     </row>
     <row r="27" ht="15.5" spans="1:11">
       <c r="A27" s="9" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>14</v>
@@ -4449,13 +4617,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>327</v>
+        <v>90</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -4464,10 +4632,10 @@
     </row>
     <row r="28" ht="15.5" spans="1:11">
       <c r="A28" s="9" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -4476,13 +4644,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -4491,10 +4659,10 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="9" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -4503,13 +4671,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>325</v>
+        <v>84</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -4518,10 +4686,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="9" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -4530,13 +4698,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -4545,10 +4713,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="9" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -4557,13 +4725,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>325</v>
+        <v>84</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -4572,10 +4740,10 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="9" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -4584,13 +4752,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -4599,10 +4767,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="9" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -4611,10 +4779,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>39</v>
@@ -4626,10 +4794,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="9" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -4638,13 +4806,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
@@ -4653,10 +4821,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="9" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -4665,13 +4833,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
@@ -4680,10 +4848,10 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="9" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -4692,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>39</v>
@@ -4707,10 +4875,10 @@
     </row>
     <row r="37" ht="15.5" spans="1:11">
       <c r="A37" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -4719,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>23</v>
@@ -4734,10 +4902,10 @@
     </row>
     <row r="38" ht="15.5" spans="1:11">
       <c r="A38" s="9" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -4746,16 +4914,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
@@ -4764,10 +4932,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="9" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
@@ -4776,10 +4944,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>59</v>
@@ -4791,10 +4959,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="9" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -4803,10 +4971,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>15</v>
@@ -4818,10 +4986,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="9" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -4830,16 +4998,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
@@ -4848,10 +5016,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="9" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>14</v>
@@ -4860,13 +5028,13 @@
         <v>1</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="0"/>
@@ -4875,10 +5043,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="9" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
@@ -4887,13 +5055,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
@@ -4902,10 +5070,10 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="9" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -4914,16 +5082,16 @@
         <v>1</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>330</v>
+        <v>87</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="0"/>
@@ -4932,10 +5100,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="9" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -4944,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>67</v>
@@ -4959,10 +5127,10 @@
     </row>
     <row r="46" ht="15.5" spans="1:11">
       <c r="A46" s="9" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -4971,13 +5139,13 @@
         <v>1</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
@@ -4986,10 +5154,10 @@
     </row>
     <row r="47" ht="15.5" spans="1:11">
       <c r="A47" s="9" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -4998,13 +5166,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
@@ -5013,10 +5181,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="9" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -5025,16 +5193,16 @@
         <v>1</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="H48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="J48" s="15" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
@@ -5043,10 +5211,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="9" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -5055,13 +5223,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
@@ -5070,10 +5238,10 @@
     </row>
     <row r="50" ht="15.5" spans="1:11">
       <c r="A50" s="9" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -5082,13 +5250,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
@@ -5097,10 +5265,10 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="9" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -5109,13 +5277,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="0"/>
@@ -5124,10 +5292,10 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="9" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -5136,16 +5304,16 @@
         <v>1</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>327</v>
+        <v>90</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="0"/>
@@ -5154,10 +5322,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="9" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -5166,16 +5334,16 @@
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
@@ -5184,10 +5352,10 @@
     </row>
     <row r="54" ht="15.5" spans="1:11">
       <c r="A54" s="9" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -5196,13 +5364,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="0"/>
@@ -5211,10 +5379,10 @@
     </row>
     <row r="55" ht="15.5" spans="1:11">
       <c r="A55" s="9" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -5223,13 +5391,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
@@ -5238,10 +5406,10 @@
     </row>
     <row r="56" ht="15.5" spans="1:11">
       <c r="A56" s="9" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -5250,10 +5418,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>35</v>
@@ -5265,10 +5433,10 @@
     </row>
     <row r="57" ht="15.5" spans="1:11">
       <c r="A57" s="9" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -5277,16 +5445,16 @@
         <v>1</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
@@ -5295,10 +5463,10 @@
     </row>
     <row r="58" ht="15.5" spans="1:11">
       <c r="A58" s="9" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -5307,16 +5475,16 @@
         <v>1</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>330</v>
+        <v>87</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="0"/>
@@ -5325,10 +5493,10 @@
     </row>
     <row r="59" ht="15.5" spans="1:11">
       <c r="A59" s="9" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -5337,16 +5505,16 @@
         <v>1</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
@@ -5355,10 +5523,10 @@
     </row>
     <row r="60" ht="15.5" spans="1:11">
       <c r="A60" s="9" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -5367,13 +5535,13 @@
         <v>1</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="0"/>
@@ -5382,10 +5550,10 @@
     </row>
     <row r="61" ht="15.5" spans="1:11">
       <c r="A61" s="9" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -5394,16 +5562,16 @@
         <v>1</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
@@ -5412,10 +5580,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="9" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -5424,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>15</v>
@@ -5433,7 +5601,7 @@
         <v>15</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="0"/>
@@ -5442,10 +5610,10 @@
     </row>
     <row r="63" ht="15.5" spans="1:11">
       <c r="A63" s="9" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -5454,13 +5622,13 @@
         <v>1</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="0"/>
@@ -5469,10 +5637,10 @@
     </row>
     <row r="64" ht="15.5" spans="1:11">
       <c r="A64" s="9" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -5481,13 +5649,13 @@
         <v>1</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>330</v>
+        <v>87</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="0"/>
@@ -5496,10 +5664,10 @@
     </row>
     <row r="65" ht="15.5" spans="1:11">
       <c r="A65" s="9" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -5508,13 +5676,13 @@
         <v>1</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="0"/>
@@ -5523,10 +5691,10 @@
     </row>
     <row r="66" ht="15.5" spans="1:11">
       <c r="A66" s="9" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -5535,13 +5703,13 @@
         <v>1</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="0"/>
@@ -5550,10 +5718,10 @@
     </row>
     <row r="67" ht="15.5" spans="1:11">
       <c r="A67" s="9" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -5562,13 +5730,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="0"/>
@@ -5577,10 +5745,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="9" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -5589,13 +5757,13 @@
         <v>1</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" ref="K68:K71" si="1">H68&amp;";"&amp;I68&amp;IF(ISBLANK(J68),"",";"&amp;J68)</f>
@@ -5604,10 +5772,10 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="9" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -5616,13 +5784,13 @@
         <v>1</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="1"/>
@@ -5631,10 +5799,10 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="9" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -5643,13 +5811,13 @@
         <v>1</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="1"/>
@@ -5658,10 +5826,10 @@
     </row>
     <row r="71" ht="15.5" spans="1:11">
       <c r="A71" s="9" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -5670,13 +5838,13 @@
         <v>1</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="1"/>
